--- a/ndf.xlsx
+++ b/ndf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8340"/>
+    <workbookView windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>{date JJ/MM/AAAA}</t>
   </si>
   <si>
-    <t xml:space="preserve">               Payé par virement le ${test}</t>
+    <t xml:space="preserve">               Payé par virement le ${date}</t>
   </si>
   <si>
     <r>
@@ -1885,8 +1885,8 @@
   </sheetPr>
   <dimension ref="B1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75"/>
